--- a/band_songs.xlsx
+++ b/band_songs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsau\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsau\PycharmProjects\band_webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06789C-1F81-42FE-8EF9-BA96B83490CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981585CF-EC07-4202-B1E0-2AA576C22A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{30E76CE6-1813-4F19-BDAD-D30752EBED4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>크립</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>형준??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>경주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -513,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -531,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -542,13 +542,16 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -564,8 +567,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -576,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -584,8 +590,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -596,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -605,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -616,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -624,8 +633,11 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -636,13 +648,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -658,8 +673,11 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -670,13 +688,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/band_songs.xlsx
+++ b/band_songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsau\PycharmProjects\band_webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981585CF-EC07-4202-B1E0-2AA576C22A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57957D7-AFAF-4F3C-8C24-E603042B5583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{30E76CE6-1813-4F19-BDAD-D30752EBED4A}"/>
   </bookViews>

--- a/band_songs.xlsx
+++ b/band_songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsau\PycharmProjects\band_webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57957D7-AFAF-4F3C-8C24-E603042B5583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4031A79C-519A-4DE1-AA8D-A699941DB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{30E76CE6-1813-4F19-BDAD-D30752EBED4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>크립</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -561,6 +561,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -605,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -666,6 +669,9 @@
       </c>
       <c r="B8" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
